--- a/docs/信号定义.xlsx
+++ b/docs/信号定义.xlsx
@@ -824,23 +824,28 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21124</xdr:colOff>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>178318</xdr:rowOff>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2609847" cy="3296236"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7453</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40585</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -854,8 +859,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3069124" y="178318"/>
-          <a:ext cx="2609847" cy="3296236"/>
+          <a:off x="4422912" y="364435"/>
+          <a:ext cx="2616476" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,29 +878,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>2074</xdr:colOff>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>159268</xdr:rowOff>
+      <xdr:rowOff>165658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>8665</xdr:colOff>
+      <xdr:colOff>15737</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>26504</xdr:rowOff>
+      <xdr:rowOff>32308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -909,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13413274" y="159268"/>
-          <a:ext cx="2609847" cy="3296236"/>
+          <a:off x="16209066" y="356158"/>
+          <a:ext cx="2616476" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,20 +1725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
     <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
     <col min="20" max="20" width="16.85546875" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" customWidth="1"/>

--- a/docs/信号定义.xlsx
+++ b/docs/信号定义.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43200" windowHeight="20670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43200" windowHeight="20670"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t>3.3V</t>
   </si>
@@ -36,9 +35,6 @@
     <t>SCL3</t>
   </si>
   <si>
-    <t>AIN2</t>
-  </si>
-  <si>
     <t>SDA3</t>
   </si>
   <si>
@@ -63,9 +59,6 @@
     <t>TXD4</t>
   </si>
   <si>
-    <t>5VIn</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -114,18 +107,6 @@
     <t>EMC_19</t>
   </si>
   <si>
-    <t>主功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 副功能1</t>
-  </si>
-  <si>
-    <t>副功能2</t>
-  </si>
-  <si>
-    <t>副功能1</t>
-  </si>
-  <si>
     <t>Servo3</t>
   </si>
   <si>
@@ -135,12 +116,6 @@
     <t>Servo4</t>
   </si>
   <si>
-    <t>FrameSync</t>
-  </si>
-  <si>
-    <t>nReset</t>
-  </si>
-  <si>
     <t>PWM3</t>
   </si>
   <si>
@@ -150,48 +125,9 @@
     <t>PWM1</t>
   </si>
   <si>
-    <t>PWM3N</t>
-  </si>
-  <si>
     <t>Servo1</t>
   </si>
   <si>
-    <t>QTmr2.0/Servo1</t>
-  </si>
-  <si>
-    <t>QTmr2.1/Servo2</t>
-  </si>
-  <si>
-    <t>QTmr2.3/Servo3</t>
-  </si>
-  <si>
-    <t>QTmr1.3/Servo4</t>
-  </si>
-  <si>
-    <t>QTmr2.2/Servo5</t>
-  </si>
-  <si>
-    <t>PWM1.B2/PWM1</t>
-  </si>
-  <si>
-    <t>PWM3.A0/PWM2</t>
-  </si>
-  <si>
-    <t>PWM1.A2/PWM3</t>
-  </si>
-  <si>
-    <t>PWM3.B0/PWM4</t>
-  </si>
-  <si>
-    <t>PWM3.B3/PWM5</t>
-  </si>
-  <si>
-    <t>PWM3.A3/PWM6</t>
-  </si>
-  <si>
-    <t>PWM1.X3/PWM7</t>
-  </si>
-  <si>
     <t>PWM4</t>
   </si>
   <si>
@@ -255,27 +191,9 @@
     <t>PWM8</t>
   </si>
   <si>
-    <t>PWM2N</t>
-  </si>
-  <si>
-    <t>PWM1N</t>
-  </si>
-  <si>
     <t>Servo5</t>
   </si>
   <si>
-    <t>FP1.B2/PWM1N</t>
-  </si>
-  <si>
-    <t>FP3.A0/PWM2</t>
-  </si>
-  <si>
-    <t>FP1.A2/PWM1</t>
-  </si>
-  <si>
-    <t>FP3.B0/PWM2N</t>
-  </si>
-  <si>
     <t>QT2.0/Servo1</t>
   </si>
   <si>
@@ -291,21 +209,12 @@
     <t>QT2.2/Servo5</t>
   </si>
   <si>
-    <t>PWM1-3号可输出互补信号。如果不需互补，可控制PWM1-10号。</t>
-  </si>
-  <si>
-    <t>复用功能以程序最后的配置为准. 例如，若先配置PWM7, 后又配置UART，则P7脚先后用于PWM7, TXD4，最终是TXD4</t>
-  </si>
-  <si>
     <t>QT2.0/RPM1</t>
   </si>
   <si>
     <t>QT2.0/SRPM_A</t>
   </si>
   <si>
-    <t xml:space="preserve"> 注：Servo(舵机)、PWM(电机)、RPM（转速）、SRPM（有向转速）、CAN功能暂未支持</t>
-  </si>
-  <si>
     <t>RPM4</t>
   </si>
   <si>
@@ -345,10 +254,82 @@
     <t>功能5</t>
   </si>
   <si>
-    <t>FP3.B3/PWM3N</t>
-  </si>
-  <si>
-    <t>FP3.A3/PWM3</t>
+    <t>QT2.1/SRPM_B</t>
+  </si>
+  <si>
+    <t>QT2.1/RPM2</t>
+  </si>
+  <si>
+    <t>QT2.3/RPM3</t>
+  </si>
+  <si>
+    <t>SRPM1_B</t>
+  </si>
+  <si>
+    <t>FP3.B3/PWM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注：灰色的Servo(舵机)、DCMC(直流电机控制)、PWM（通用脉调）、RPM（转速）、SRPM（有向转速）、CAN功能暂未支持</t>
+  </si>
+  <si>
+    <t>DCMC1N</t>
+  </si>
+  <si>
+    <t>DCMC2</t>
+  </si>
+  <si>
+    <t>DCMC2N</t>
+  </si>
+  <si>
+    <t>DCMC3N</t>
+  </si>
+  <si>
+    <t>DCMC3</t>
+  </si>
+  <si>
+    <t>DCMC1</t>
+  </si>
+  <si>
+    <t>QT2.0/PWM1</t>
+  </si>
+  <si>
+    <t>QT2.1/PWM2</t>
+  </si>
+  <si>
+    <t>QT2.3/PWM3</t>
+  </si>
+  <si>
+    <t>QT1.3/PWM4</t>
+  </si>
+  <si>
+    <t>FP3.B0/PWM7</t>
+  </si>
+  <si>
+    <t>FP1.A2/PWM8</t>
+  </si>
+  <si>
+    <t>FP3.A0/PWM9</t>
+  </si>
+  <si>
+    <t>FP3.A0/PWM10</t>
+  </si>
+  <si>
+    <t>FP1.B2/DCMC1N</t>
+  </si>
+  <si>
+    <t>FP3.A0/DCMC2</t>
+  </si>
+  <si>
+    <t>FP1.A2/DCMC1</t>
+  </si>
+  <si>
+    <t>FP3.B0/DCMC2N</t>
+  </si>
+  <si>
+    <t>FP3.B3/DCMC3N</t>
+  </si>
+  <si>
+    <t>FP3.A3/DCMC3</t>
   </si>
   <si>
     <r>
@@ -381,7 +362,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PWM7-10</t>
+      <t>PWM1-4</t>
     </r>
     <r>
       <rPr>
@@ -419,7 +400,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PWM1-6</t>
+      <t>PWM5-10</t>
     </r>
     <r>
       <rPr>
@@ -480,40 +461,13 @@
     </r>
   </si>
   <si>
-    <t>QT2.1/SRPM_B</t>
-  </si>
-  <si>
-    <t>QT2.1/RPM2</t>
-  </si>
-  <si>
-    <t>QT2.3/RPM3</t>
-  </si>
-  <si>
-    <t>SRPM1_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 注：灰色的Servo(舵机)、PWM(电机)、RPM（转速）、SRPM（有向转速）、CAN功能暂未支持</t>
-  </si>
-  <si>
-    <t>FP3.B3/PWM6</t>
-  </si>
-  <si>
-    <t>FP3.B0/PWM5</t>
-  </si>
-  <si>
-    <t>FP1.B2/PWM4</t>
-  </si>
-  <si>
-    <t>QT1.3/PWM10</t>
-  </si>
-  <si>
-    <t>QT2.3/PWM9</t>
-  </si>
-  <si>
-    <t>QT2.1/PWM8</t>
-  </si>
-  <si>
-    <t>QT2.0/PWM7</t>
+    <t>复用功能以程序最后的配置为准. 例如，若先配置PWM10, 后又配置DCMC1，则P0脚先用于PWM10, 后备DCMC1占用为互补输出</t>
+  </si>
+  <si>
+    <t>DCMC和Servo虽然在底层都是把PWM进一步封装的API，但是仍然以独立功能的身份出现。</t>
+  </si>
+  <si>
+    <t>FP3.A3/PWM5</t>
   </si>
 </sst>
 </file>
@@ -564,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,18 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD1EAB8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9C9EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4CEFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,33 +651,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_IOMUX_080928 2 2" xfId="1"/>
@@ -739,16 +687,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD8C8F0"/>
+      <color rgb="FFFFAFDD"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFC0FCF5"/>
-      <color rgb="FFD8C8F0"/>
       <color rgb="FFFCD4D4"/>
       <color rgb="FFE9C9EF"/>
       <color rgb="FFC9E3FF"/>
       <color rgb="FFE7D1BB"/>
       <color rgb="FFD4CEFA"/>
       <color rgb="FFF7EFED"/>
-      <color rgb="FFD1EAB8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -766,66 +714,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>68749</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>178318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>240196</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45554</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6197879" y="4559818"/>
-          <a:ext cx="2623100" cy="3296236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -833,7 +721,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>7453</xdr:colOff>
+      <xdr:colOff>7454</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>40585</xdr:rowOff>
     </xdr:to>
@@ -881,16 +769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>165658</xdr:rowOff>
+      <xdr:rowOff>173941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>15737</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>32308</xdr:rowOff>
+      <xdr:rowOff>40591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,7 +802,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16209066" y="356158"/>
+          <a:off x="17318935" y="364441"/>
           <a:ext cx="2616476" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1200,540 +1088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D23:U42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:T41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="23" spans="4:21">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="4:21">
-      <c r="D24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="4:21">
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="4:21">
-      <c r="D26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="4:21">
-      <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="4:21">
-      <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="4:21">
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="4:21">
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="4:21">
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="4:21">
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="4:21">
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="4:21">
-      <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="4:21">
-      <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="4:21">
-      <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="4:21">
-      <c r="D37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="4:21">
-      <c r="D38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="4:21">
-      <c r="D39" s="1"/>
-      <c r="F39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="4:21">
-      <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="4:21">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="4:21">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AL24"/>
+  <dimension ref="B2:AM24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -1748,6 +1113,7 @@
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
     <col min="28" max="28" width="2.7109375" customWidth="1"/>
     <col min="31" max="31" width="8.85546875" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
@@ -1757,7 +1123,7 @@
     <col min="38" max="38" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:38">
+    <row r="2" spans="2:39">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1769,7 +1135,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="3:38">
+    <row r="3" spans="2:39">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1785,7 +1151,6 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1800,8 +1165,9 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" spans="3:38">
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:39">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1817,7 +1183,6 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1832,8 +1197,9 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-    </row>
-    <row r="5" spans="3:38">
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="2:39">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1849,7 +1215,6 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1864,8 +1229,9 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="3:38">
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="2:39">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1881,7 +1247,6 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1896,8 +1261,9 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" spans="3:38">
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="2:39">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1913,7 +1279,6 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1928,8 +1293,9 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-    </row>
-    <row r="8" spans="3:38">
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="2:39">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1945,7 +1311,6 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -1960,22 +1325,26 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-    </row>
-    <row r="9" spans="3:38">
-      <c r="C9" s="17" t="s">
-        <v>102</v>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="2:39">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>1</v>
@@ -1989,69 +1358,72 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="AH9" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL9" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="3:38">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2067,7 +1439,6 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -2082,8 +1453,9 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="3:38">
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="2:39">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2099,7 +1471,6 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -2114,23 +1485,24 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-    </row>
-    <row r="12" spans="3:38">
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>77</v>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="2:39">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2139,53 +1511,55 @@
       <c r="M12" s="1"/>
       <c r="N12" s="5"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="15" t="s">
-        <v>59</v>
+      <c r="P12" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="V12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA12" s="1"/>
+      <c r="W12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ12" s="1"/>
-    </row>
-    <row r="13" spans="3:38">
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
-        <v>39</v>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="2:39">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2193,74 +1567,78 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA13" s="1"/>
+      <c r="R13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI13" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK13" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="3:38">
-      <c r="C14" s="20"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
-        <v>40</v>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL13" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2269,54 +1647,55 @@
       <c r="M14" s="1"/>
       <c r="N14" s="5"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="20"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA14" s="1"/>
+      <c r="P14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="17"/>
+      <c r="W14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" spans="3:38">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>76</v>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="2:39">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2324,78 +1703,78 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA15" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH15" s="10" t="s">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39">
+      <c r="C16" s="17"/>
+      <c r="D16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="AI15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK15" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="3:38">
-      <c r="C16" s="20"/>
-      <c r="D16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2403,86 +1782,89 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="X16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK16" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL16" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="3:38">
-      <c r="C17" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>38</v>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39">
+      <c r="B17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2490,82 +1872,85 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="S17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ17" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="3:38">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM17" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39">
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2574,39 +1959,39 @@
       <c r="M18" s="1"/>
       <c r="N18" s="5"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="14" t="s">
-        <v>72</v>
+      <c r="P18" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="3:38">
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="2:39">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
@@ -2619,56 +2004,56 @@
       <c r="N19" s="5"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="13" t="s">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="Z19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="AJ19" s="1"/>
-    </row>
-    <row r="21" spans="3:38">
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="21" spans="2:39">
       <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="3:38">
+        <v>104</v>
+      </c>
+      <c r="X21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39">
       <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="W22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="3:38">
+        <v>81</v>
+      </c>
+      <c r="X22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39">
       <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="W23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:38">
-      <c r="W24" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="X23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39">
+      <c r="X24" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/docs/信号定义.xlsx
+++ b/docs/信号定义.xlsx
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -662,7 +662,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1090,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,11 +1487,11 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="2:39">
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1519,7 +1518,7 @@
       <c r="W12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="X12" s="30" t="s">
+      <c r="X12" s="29" t="s">
         <v>96</v>
       </c>
       <c r="Y12" s="2" t="s">
@@ -1542,14 +1541,14 @@
         <v>38</v>
       </c>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AK12" s="18"/>
     </row>
     <row r="13" spans="2:39">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1572,22 +1571,22 @@
       <c r="O13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="20" t="s">
         <v>63</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="29" t="s">
         <v>97</v>
       </c>
       <c r="Y13" s="2" t="s">
@@ -1613,22 +1612,22 @@
       <c r="AI13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AJ13" s="24" t="s">
+      <c r="AJ13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AK13" s="13" t="s">
+      <c r="AK13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AL13" s="15" t="s">
+      <c r="AL13" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:39">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1647,16 +1646,16 @@
       <c r="M14" s="1"/>
       <c r="N14" s="5"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="16"/>
       <c r="W14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="X14" s="30" t="s">
+      <c r="X14" s="29" t="s">
         <v>98</v>
       </c>
       <c r="Y14" s="2" t="s">
@@ -1678,14 +1677,14 @@
       <c r="AI14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AK14" s="1"/>
+      <c r="AK14" s="18"/>
     </row>
     <row r="15" spans="2:39">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1708,22 +1707,22 @@
       <c r="O15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="20" t="s">
         <v>64</v>
       </c>
       <c r="W15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="X15" s="30" t="s">
+      <c r="X15" s="29" t="s">
         <v>99</v>
       </c>
       <c r="Y15" s="2" t="s">
@@ -1749,10 +1748,10 @@
       <c r="AI15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AJ15" s="24" t="s">
+      <c r="AJ15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AK15" s="13" t="s">
+      <c r="AK15" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AL15" s="15" t="s">
@@ -1760,11 +1759,11 @@
       </c>
     </row>
     <row r="16" spans="2:39">
-      <c r="C16" s="17"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1787,25 +1786,25 @@
       <c r="O16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="27" t="s">
         <v>79</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="30" t="s">
+      <c r="X16" s="29" t="s">
         <v>100</v>
       </c>
       <c r="Y16" s="6" t="s">
@@ -1834,27 +1833,27 @@
       <c r="AJ16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AK16" s="13" t="s">
+      <c r="AK16" s="22" t="s">
         <v>89</v>
       </c>
       <c r="AL16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AM16" s="16" t="s">
+      <c r="AM16" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1877,19 +1876,19 @@
       <c r="O17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="T17" s="27" t="s">
         <v>68</v>
       </c>
       <c r="U17" s="15" t="s">
@@ -1901,7 +1900,7 @@
       <c r="W17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X17" s="30" t="s">
+      <c r="X17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="Y17" s="6" t="s">
@@ -1930,13 +1929,13 @@
       <c r="AJ17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AK17" s="13" t="s">
+      <c r="AK17" s="22" t="s">
         <v>88</v>
       </c>
       <c r="AL17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM17" s="16" t="s">
+      <c r="AM17" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2052,7 +2051,7 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="X24" s="27" t="s">
+      <c r="X24" s="26" t="s">
         <v>102</v>
       </c>
     </row>
